--- a/target/classes/output.xlsx
+++ b/target/classes/output.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t>ABCD7878</t>
   </si>
@@ -27,6 +27,9 @@
     <t>3.0</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>ABCDFGTRF89876*km</t>
   </si>
   <si>
@@ -37,6 +40,30 @@
   </si>
   <si>
     <t>9876543*&amp;*&amp;ERTY</t>
+  </si>
+  <si>
+    <t>ABCHJUH</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>909ikokujyhtgt*</t>
+  </si>
+  <si>
+    <t>JKJKUHY/////\\\\\%^%gyvb</t>
+  </si>
+  <si>
+    <t>jkjkhjhh)))))</t>
+  </si>
+  <si>
+    <t>(((hjnmnmnmm####</t>
+  </si>
+  <si>
+    <t>hjhj.uiuiuisdksd</t>
   </si>
 </sst>
 </file>
@@ -361,15 +388,112 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3" t="s">
         <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
